--- a/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
+++ b/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almax/Documents/NTNU/23h/marketing/CPA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almax/Documents/NTNU/23h/marketing/eth-marketing23/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8AC9C6-B041-EC40-AA6D-6219CBD9D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05D302-FD82-AB4D-AFD4-3F8D9140FB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="2780" windowWidth="30160" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21040" yWindow="5180" windowWidth="30160" windowHeight="16520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,28 @@
     <sheet name="q8-d" sheetId="18" r:id="rId13"/>
     <sheet name="q8-e" sheetId="19" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
   <si>
     <t>group_id</t>
   </si>
@@ -1078,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,14 +1278,14 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
@@ -1311,14 +1322,14 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>68</v>
+      <c r="B3" s="2">
+        <v>0.46085999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.54388999999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.41914000000000001</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>68</v>
@@ -1353,14 +1364,14 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
+      <c r="B4" s="2">
+        <v>3.4090000000000002E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.2509999999999995E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.2500000000000004E-3</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>68</v>
@@ -1393,14 +1404,14 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
+      <c r="B5" s="2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>68</v>
@@ -1431,14 +1442,14 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
+      <c r="B6" s="2">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.72E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>68</v>
@@ -1467,14 +1478,14 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>68</v>
@@ -1501,14 +1512,14 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>68</v>
@@ -1533,14 +1544,14 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>68</v>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>68</v>
@@ -1563,14 +1574,14 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>68</v>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>68</v>
@@ -1591,14 +1602,14 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1617,11 +1628,11 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1641,8 +1652,8 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>68</v>
+      <c r="B13" s="2">
+        <v>0</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1663,14 +1674,17 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
+      <c r="B14" s="2">
+        <f>AVERAGE(B3:B13)</f>
+        <v>4.597090909090909E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE(C3:C13)</f>
+        <v>6.4414000000000013E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D3:D13)</f>
+        <v>4.786E-2</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>68</v>

--- a/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
+++ b/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
@@ -1,33 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almax/Documents/NTNU/23h/marketing/eth-marketing23/raw_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27EEE12-3DE3-554B-B27A-5AC013631488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="4360" yWindow="760" windowWidth="25240" windowHeight="15140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="group"/>
-    <sheet r:id="rId2" sheetId="2" name="q2-a"/>
-    <sheet r:id="rId3" sheetId="3" name="q2-bd"/>
-    <sheet r:id="rId4" sheetId="4" name="q3-acegh"/>
-    <sheet r:id="rId5" sheetId="5" name="q4-ab"/>
-    <sheet r:id="rId6" sheetId="6" name="q5-ab"/>
-    <sheet r:id="rId7" sheetId="7" name="q6-a"/>
-    <sheet r:id="rId8" sheetId="8" name="q6-cd"/>
-    <sheet r:id="rId9" sheetId="9" name="q7-a"/>
-    <sheet r:id="rId10" sheetId="10" name="q7-d"/>
-    <sheet r:id="rId11" sheetId="11" name="q7-f"/>
-    <sheet r:id="rId12" sheetId="12" name="q8-a"/>
-    <sheet r:id="rId13" sheetId="13" name="q8-d"/>
-    <sheet r:id="rId14" sheetId="14" name="q8-e"/>
+    <sheet name="group" sheetId="1" r:id="rId1"/>
+    <sheet name="q2-a" sheetId="2" r:id="rId2"/>
+    <sheet name="q2-bd" sheetId="3" r:id="rId3"/>
+    <sheet name="q3-acegh" sheetId="4" r:id="rId4"/>
+    <sheet name="q4-ab" sheetId="5" r:id="rId5"/>
+    <sheet name="q5-ab" sheetId="6" r:id="rId6"/>
+    <sheet name="q6-a" sheetId="7" r:id="rId7"/>
+    <sheet name="q6-cd" sheetId="8" r:id="rId8"/>
+    <sheet name="q7-a" sheetId="9" r:id="rId9"/>
+    <sheet name="q7-d" sheetId="10" r:id="rId10"/>
+    <sheet name="q7-f" sheetId="11" r:id="rId11"/>
+    <sheet name="q8-a" sheetId="12" r:id="rId12"/>
+    <sheet name="q8-d" sheetId="13" r:id="rId13"/>
+    <sheet name="q8-e" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>name_j</t>
   </si>
@@ -164,7 +183,7 @@
     <t>k_0</t>
   </si>
   <si>
-    <t>X</t>
+    <t/>
   </si>
   <si>
     <t>k_1</t>
@@ -242,9 +261,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +273,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -275,7 +299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -296,16 +320,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -313,41 +337,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -358,10 +391,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -399,71 +432,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,7 +524,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -514,11 +547,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -527,13 +560,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +576,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -552,7 +585,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,7 +594,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,10 +602,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -637,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -645,15 +678,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -667,43 +700,18 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -711,163 +719,139 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5">
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5">
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="5">
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="5">
+    </row>
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="5">
+    </row>
+    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="5">
+    </row>
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="5">
+    </row>
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="5">
+    </row>
+    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="5">
+    </row>
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="5">
+    </row>
+    <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="5">
+    </row>
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="5">
+    </row>
+    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="5">
+    </row>
+    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="5">
+    </row>
+    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="5">
+    </row>
+    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -883,29 +867,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -913,16 +893,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -939,20 +915,14 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -960,13 +930,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -974,47 +943,40 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1030,13 +992,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,23 +1005,20 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1068,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1076,46 +1034,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>20332</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>2018</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>2019</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1125,161 +1079,159 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="3">
         <v>1584</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="3">
         <v>2324</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>3054</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="3">
         <v>1379</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>2697</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="3">
         <v>1259</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>2068</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="3">
         <v>1419</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>1644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="3">
         <v>1626</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2315</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="3">
         <v>1890</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>2928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="3">
         <v>1457</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>2970</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="5">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <v>1169</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>2378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <v>1569</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>2284</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="5">
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="3">
         <v>2247</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>3091</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <v>2409</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>3429</v>
       </c>
     </row>
@@ -1289,37 +1241,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1359,543 +1302,383 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    </row>
+    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="B3" s="8">
+        <v>0.46085999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.54388999999999998</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.41914000000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.16442000000000001</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.46653</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.49937999999999999</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.72487000000000001</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.70762000000000003</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.45937</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.43530999999999997</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.43258000000000002</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(B3:M3)</f>
+        <v>0.48308818181818186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="B4" s="8">
+        <v>7.3969999999999994E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.17008999999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9.1789999999999997E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.32477</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.12438</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8.8319999999999996E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.10571999999999999</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.16386999999999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3.075E-2</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N13" si="0">AVERAGE(B4:M4)</f>
+        <v>0.11909600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="B5" s="8">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.2559999999999999E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.36842000000000003</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.18604999999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.28713</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.24793000000000001</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.24771000000000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.14773</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24598111111111112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="B6" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.57142999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.58621000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.63332999999999995</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.25925999999999999</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.42569874999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.76922999999999997</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.58823999999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.26316000000000001</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.44580428571428571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="N11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="B13" s="9"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8">
+        <v>0.178726</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.26729000000000003</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.39535999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.45665</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.36421999999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.39151999999999998</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.33007999999999998</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.25699</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.23302999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.43258000000000002</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="7" t="s">
+      <c r="N14" s="6">
+        <f>AVERAGE(N3:N12)</f>
+        <v>0.56530016619769119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1903,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1911,13 +1694,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1925,17 +1707,14 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1943,15 +1722,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1961,89 +1739,65 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5">
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5">
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="5">
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2059,91 +1813,79 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5">
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5">
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="5">
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2151,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2159,13 +1901,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2173,17 +1914,14 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2191,19 +1929,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
-    </row>
+    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
+++ b/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almax/Documents/NTNU/23h/marketing/eth-marketing23/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27EEE12-3DE3-554B-B27A-5AC013631488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412292E1-6D9D-C94D-9228-9E72E2B9BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="760" windowWidth="25240" windowHeight="15140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="760" windowWidth="25240" windowHeight="15140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -262,6 +262,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -369,6 +372,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,7 +1037,9 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1247,8 +1254,8 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1427,7 @@
         <v>3.075E-2</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4:N13" si="0">AVERAGE(B4:M4)</f>
+        <f t="shared" ref="N4:N12" si="0">AVERAGE(B4:M4)</f>
         <v>0.11909600000000001</v>
       </c>
     </row>
@@ -1665,7 +1672,7 @@
       <c r="M14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="13">
         <f>AVERAGE(N3:N12)</f>
         <v>0.56530016619769119</v>
       </c>
@@ -1682,6 +1689,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1692,11 +1700,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,7 +1718,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9915769295054999</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.70607321397545297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
+++ b/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almax/Documents/NTNU/23h/marketing/eth-marketing23/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412292E1-6D9D-C94D-9228-9E72E2B9BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9023237-F400-B741-9BD4-6E34BBA74E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="760" windowWidth="25240" windowHeight="15140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="760" windowWidth="22620" windowHeight="12340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>name_j</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>k_0</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>k_1</t>
@@ -340,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -354,26 +351,35 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,16 +699,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1037,9 +1043,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1048,19 +1052,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,10 +1108,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,58 +1258,57 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1313,364 +1316,310 @@
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8">
+        <v>45</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.46085999999999999</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>0.54388999999999998</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>0.41914000000000001</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>0.16442000000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>0.46653</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>0.49937999999999999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>0.72487000000000001</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>0.70762000000000003</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>0.45937</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>0.43530999999999997</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <v>0.43258000000000002</v>
       </c>
-      <c r="N3" s="6">
-        <f>AVERAGE(B3:M3)</f>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N12" si="0">AVERAGE(B3:M3)</f>
         <v>0.48308818181818186</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="8">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11">
         <v>7.3969999999999994E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>0.17008999999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>9.1789999999999997E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>0.32477</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>0.12438</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>8.8319999999999996E-2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>0.10571999999999999</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>0.16386999999999999</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>3.075E-2</v>
       </c>
-      <c r="N4" s="6">
-        <f t="shared" ref="N4:N12" si="0">AVERAGE(B4:M4)</f>
+      <c r="N4" s="7">
+        <f t="shared" si="0"/>
         <v>0.11909600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="8">
+        <v>47</v>
+      </c>
+      <c r="B5" s="11">
         <v>0.29630000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>3.2559999999999999E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0.4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>0.36842000000000003</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>0.18604999999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>0.28713</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>0.24793000000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>0.24771000000000001</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>0.14773</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <f t="shared" si="0"/>
         <v>0.24598111111111112</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="8">
+        <v>48</v>
+      </c>
+      <c r="B6" s="11">
         <v>6.25E-2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>0.57142999999999999</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>0.5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>0.14285999999999999</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>0.65</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>0.58621000000000001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>0.63332999999999995</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>0.25925999999999999</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <f t="shared" si="0"/>
         <v>0.42569874999999996</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="9">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>0.5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>0.76922999999999997</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>0.58823999999999999</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>0.26316000000000001</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <f t="shared" si="0"/>
         <v>0.44580428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7">
         <v>0.5</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>0.8</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>0.1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="N13" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="8">
+        <v>56</v>
+      </c>
+      <c r="B14" s="11">
         <v>0.178726</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>0.63180000000000003</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>0.26729000000000003</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>0.39535999999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>0.45665</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>0.36421999999999999</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>0.39151999999999998</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>0.33007999999999998</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="7">
         <v>0.25699</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>0.23302999999999999</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <v>0.43258000000000002</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="N14" s="13">
         <f>AVERAGE(N3:N12)</f>
@@ -1683,13 +1632,12 @@
     <row r="18" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>58</v>
+      <c r="A20" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1700,29 +1648,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>2.9915769295054999</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="7">
         <v>0.70607321397545297</v>
       </c>
     </row>
@@ -1738,7 +1683,9 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1766,56 +1713,120 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
+      <c r="B3" s="5">
+        <v>0.56530016999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.48308715000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
+      <c r="B4" s="5">
+        <v>0.31956427999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.7534589999999997E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
+      <c r="B5" s="5">
+        <v>0.18064974</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.4152349999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
+      <c r="B6" s="5">
+        <v>0.10212133</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.0246299999999996E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
+      <c r="B7" s="5">
+        <v>5.7729210000000003E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.6857999999999999E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
+      <c r="B8" s="5">
+        <v>3.2634330000000003E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.61148E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
+      <c r="B9" s="5">
+        <v>1.844819E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.3715999999999996E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
+      <c r="B10" s="5">
+        <v>1.042877E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.3715999999999996E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
+      <c r="B11" s="5">
+        <v>5.8953800000000004E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5.3715999999999996E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
+      <c r="B12" s="5">
+        <v>3.3326599999999999E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5.3715999999999996E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
+      <c r="B13" s="5">
+        <v>1.8839499999999999E-3</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
+++ b/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
@@ -1,47 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almax/Documents/NTNU/23h/marketing/eth-marketing23/raw_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9023237-F400-B741-9BD4-6E34BBA74E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="760" windowWidth="22620" windowHeight="12340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="group" sheetId="1" r:id="rId1"/>
-    <sheet name="q2-a" sheetId="2" r:id="rId2"/>
-    <sheet name="q2-bd" sheetId="3" r:id="rId3"/>
-    <sheet name="q3-acegh" sheetId="4" r:id="rId4"/>
-    <sheet name="q4-ab" sheetId="5" r:id="rId5"/>
-    <sheet name="q5-ab" sheetId="6" r:id="rId6"/>
-    <sheet name="q6-a" sheetId="7" r:id="rId7"/>
-    <sheet name="q6-cd" sheetId="8" r:id="rId8"/>
-    <sheet name="q7-a" sheetId="9" r:id="rId9"/>
-    <sheet name="q7-d" sheetId="10" r:id="rId10"/>
-    <sheet name="q7-f" sheetId="11" r:id="rId11"/>
-    <sheet name="q8-a" sheetId="12" r:id="rId12"/>
-    <sheet name="q8-d" sheetId="13" r:id="rId13"/>
-    <sheet name="q8-e" sheetId="14" r:id="rId14"/>
+    <sheet r:id="rId1" sheetId="1" name="group"/>
+    <sheet r:id="rId2" sheetId="2" name="q2-a"/>
+    <sheet r:id="rId3" sheetId="3" name="q2-bd"/>
+    <sheet r:id="rId4" sheetId="4" name="q3-acegh"/>
+    <sheet r:id="rId5" sheetId="5" name="q4-ab"/>
+    <sheet r:id="rId6" sheetId="6" name="q5-ab"/>
+    <sheet r:id="rId7" sheetId="7" name="q6-a"/>
+    <sheet r:id="rId8" sheetId="8" name="q6-cd"/>
+    <sheet r:id="rId9" sheetId="9" name="q7-a"/>
+    <sheet r:id="rId10" sheetId="10" name="q7-d"/>
+    <sheet r:id="rId11" sheetId="11" name="q7-f"/>
+    <sheet r:id="rId12" sheetId="12" name="q8-a"/>
+    <sheet r:id="rId13" sheetId="13" name="q8-d"/>
+    <sheet r:id="rId14" sheetId="14" name="q8-e"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -258,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000000"/>
   </numFmts>
@@ -299,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -320,16 +301,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -337,61 +318,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -402,10 +399,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -443,71 +440,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,7 +532,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -558,11 +555,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -571,13 +568,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -587,7 +584,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -596,7 +593,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -605,7 +602,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -613,10 +610,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -681,7 +678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -689,15 +686,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="25.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -711,18 +708,43 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -730,139 +752,163 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="B2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="B3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="B4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="B5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="B6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="B7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="B8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="B9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="B10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="B11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="B12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="B13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="B14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="B15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="B16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="B17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="B18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="B19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="B20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="B21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="B22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="B23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="B24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -870,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -878,25 +924,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -904,12 +954,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -926,14 +980,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -941,12 +1001,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -954,40 +1015,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -995,7 +1063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1003,12 +1071,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,20 +1085,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1045,42 +1117,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="5">
         <v>20332</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>2018</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>2019</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1090,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1098,151 +1174,153 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>1584</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1584</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>2324</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>3054</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>1379</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>2697</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>1259</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>2068</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>1419</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>1644</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>1626</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>2315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>1890</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>2928</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>1457</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>2970</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>1169</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>2378</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>1569</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>2284</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>2247</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>3091</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2409</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>3429</v>
       </c>
     </row>
@@ -1252,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1260,381 +1338,553 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="20" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11">
-        <v>0.46085999999999999</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.54388999999999998</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.41914000000000001</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.16442000000000001</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="B3" s="13">
+        <v>0.46086</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.54389</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.41914</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.16442</v>
+      </c>
+      <c r="F3" s="13">
         <v>0.46653</v>
       </c>
-      <c r="G3" s="7">
-        <v>0.49937999999999999</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.72487000000000001</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.70762000000000003</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="G3" s="13">
+        <v>0.49938</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.72487</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.70762</v>
+      </c>
+      <c r="J3" s="13">
         <v>0.45937</v>
       </c>
-      <c r="K3" s="7">
-        <v>0.43530999999999997</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.43258000000000002</v>
-      </c>
-      <c r="N3" s="7">
-        <f t="shared" ref="N3:N12" si="0">AVERAGE(B3:M3)</f>
-        <v>0.48308818181818186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="13">
+        <v>0.43531</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.43258</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="13">
+        <f>AVERAGE(B3:M3)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="11">
-        <v>7.3969999999999994E-2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.17008999999999999</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>9.1789999999999997E-2</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="B4" s="13">
+        <v>0.07397</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.17009</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.0173</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.09179</v>
+      </c>
+      <c r="F4" s="13">
         <v>0.32477</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="13">
         <v>0.12438</v>
       </c>
-      <c r="H4" s="7">
-        <v>8.8319999999999996E-2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.10571999999999999</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.16386999999999999</v>
-      </c>
-      <c r="K4" s="7">
-        <v>3.075E-2</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11909600000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="13">
+        <v>0.08832</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.10572</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.16387</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.03075</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="13">
+        <f>AVERAGE(B4:M4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="11">
-        <v>0.29630000000000001</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3.2559999999999999E-2</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="13">
+        <v>0.2963</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.03256</v>
+      </c>
+      <c r="D5" s="13">
         <v>0.4</v>
       </c>
-      <c r="E5" s="7">
-        <v>0.36842000000000003</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.18604999999999999</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="E5" s="13">
+        <v>0.36842</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.18605</v>
+      </c>
+      <c r="G5" s="13">
         <v>0.28713</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.24793000000000001</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.24771000000000001</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="H5" s="13">
+        <v>0.24793</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.24771</v>
+      </c>
+      <c r="J5" s="13">
         <v>0.14773</v>
       </c>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.24598111111111112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="13">
+        <f>AVERAGE(B5:M5)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.57142999999999999</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="13">
+        <v>0.0625</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.57143</v>
+      </c>
+      <c r="D6" s="13">
         <v>0.5</v>
       </c>
-      <c r="E6" s="7">
-        <v>0.14285999999999999</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="13">
+        <v>0.14286</v>
+      </c>
+      <c r="F6" s="13">
         <v>0.65</v>
       </c>
-      <c r="G6" s="7">
-        <v>0.58621000000000001</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.63332999999999995</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.25925999999999999</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.42569874999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="13">
+        <v>0.58621</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.63333</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.25926</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="13">
+        <f>AVERAGE(B6:M6)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="13">
         <v>0.5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
-        <v>0.76922999999999997</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.58823999999999999</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.26316000000000001</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.44580428571428571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="13">
+        <v>0.76923</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.58824</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.26316</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="13">
+        <f>AVERAGE(B7:M7)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7">
+      <c r="B8" s="5"/>
+      <c r="C8" s="13">
         <v>0.5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="D8" s="7"/>
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="13">
         <v>0.8</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="13">
         <v>0.1</v>
       </c>
-      <c r="N8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="13">
+        <f>AVERAGE(B8:M8)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="12">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="D9" s="7"/>
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="13">
+        <f>AVERAGE(B9:M9)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="N10" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="13">
+        <f>AVERAGE(B10:M10)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="12">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="N11" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="13">
+        <f>AVERAGE(B11:M11)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="12">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="N12" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="13">
+        <f>AVERAGE(B12:M12)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="13">
         <v>0.178726</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.63180000000000003</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.26729000000000003</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.39535999999999999</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="C14" s="13">
+        <v>0.6318</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.26729</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.39536</v>
+      </c>
+      <c r="F14" s="13">
         <v>0.45665</v>
       </c>
-      <c r="G14" s="7">
-        <v>0.36421999999999999</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.39151999999999998</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0.33007999999999998</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="G14" s="13">
+        <v>0.36422</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.39152</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.33008</v>
+      </c>
+      <c r="J14" s="13">
         <v>0.25699</v>
       </c>
-      <c r="K14" s="7">
-        <v>0.23302999999999999</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0.43258000000000002</v>
-      </c>
-      <c r="N14" s="13">
+      <c r="K14" s="13">
+        <v>0.23303</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.43258</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="16">
         <f>AVERAGE(N3:N12)</f>
-        <v>0.56530016619769119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="17"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="17"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="17"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="17"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="18" t="s">
         <v>57</v>
       </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +1892,325 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.005" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="13">
+        <v>5.292015</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2.27332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.56530017</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.48308715</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.31956428</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.05753459</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.18064974</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.01415235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.10212133</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.00602463</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.05772921</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.0026858</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.03263433</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.00161148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.01844819</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.00053716</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.01042877</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.00053716</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.00589538</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.00053716</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.00333266</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.00053716</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.00188395</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10.329</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>10.20939</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10.09118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9.97433</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>9.85883</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9.74468</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>9.63184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9.52031</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>9.41007</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>9.30111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9.19341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1650,292 +2218,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>2.9915769295054999</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.70607321397545297</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.56530016999999999</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.48308715000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.31956427999999998</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5.7534589999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.18064974</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.4152349999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.10212133</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6.0246299999999996E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5.7729210000000003E-2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2.6857999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3.2634330000000003E-2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.61148E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1.844819E-2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5.3715999999999996E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1.042877E-2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5.3715999999999996E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5.8953800000000004E-3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5.3715999999999996E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3.3326599999999999E-3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5.3715999999999996E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1.8839499999999999E-3</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1943,14 +2232,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="7">
+        <v>12.69215</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1958,17 +2252,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
+++ b/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="group"/>
@@ -1898,7 +1898,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1958,8 +1958,12 @@
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="5">
@@ -2121,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>10.329</v>
+        <v>5.83898</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
@@ -2129,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>10.20939</v>
+        <v>3.26256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
@@ -2137,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>10.09118</v>
+        <v>1.82297</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
@@ -2145,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>9.97433</v>
+        <v>1.01859</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
@@ -2153,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>9.85883</v>
+        <v>0.56914</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
@@ -2161,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>9.74468</v>
+        <v>0.31801</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
@@ -2169,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>9.63184</v>
+        <v>0.17769</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
@@ -2177,7 +2181,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>9.52031</v>
+        <v>0.09929</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
@@ -2185,7 +2189,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>9.41007</v>
+        <v>0.05548</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
@@ -2193,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>9.30111</v>
+        <v>0.031</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
@@ -2201,7 +2205,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>9.19341</v>
+        <v>0.01732</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2220,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2236,7 +2240,9 @@
       <c r="A2" s="7">
         <v>12.69215</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="7">
+        <v>23.756171562770646</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
+++ b/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="group"/>
@@ -329,6 +329,9 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -337,9 +340,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -754,12 +754,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -767,148 +767,194 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4">
+        <v>0.46</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4">
+        <v>0.12</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4">
+        <v>0.2333</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4">
+        <v>0.4061</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="4">
+        <v>0.5341</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="4">
+        <v>0.6289</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4">
+        <v>0.6992</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4">
+        <v>0.7512</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="4">
+        <v>0.7898</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="4">
+        <v>0.8183</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="4">
+        <v>0.8395</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4">
+        <v>0.8552</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4">
+        <v>0.8669</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="4">
+        <v>0.8754</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4">
+        <v>0.8818</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="4">
+        <v>0.8865</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="4">
+        <v>0.89</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4">
+        <v>0.8926</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4">
+        <v>0.8945</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="4">
+        <v>0.8959</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="4">
+        <v>0.897</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="4">
+        <v>0.8978</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="4">
+        <v>0.8983</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,7 +968,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -937,7 +983,9 @@
       <c r="B1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4">
+        <v>16.05373526341549</v>
+      </c>
       <c r="B2" s="2"/>
     </row>
   </sheetData>
@@ -1119,44 +1167,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>20332</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>2018</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>2019</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1176,151 +1224,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>1584</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>1584</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>2324</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>3054</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>1379</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>2697</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>1259</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>2068</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>1419</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>1644</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>1626</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>2315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>1890</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>2928</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>1457</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>2970</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>1169</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>2378</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>1569</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>2284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>2247</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>3091</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>2409</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>3429</v>
       </c>
     </row>
@@ -1404,17 +1452,17 @@
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="2"/>
       <c r="N2" s="15"/>
     </row>
@@ -1494,7 +1542,7 @@
       <c r="K4" s="13">
         <v>0.03075</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="2"/>
       <c r="N4" s="13">
         <f>AVERAGE(B4:M4)</f>
@@ -1531,8 +1579,8 @@
       <c r="J5" s="13">
         <v>0.14773</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="2"/>
       <c r="N5" s="13">
         <f>AVERAGE(B5:M5)</f>
@@ -1566,9 +1614,9 @@
       <c r="I6" s="13">
         <v>0.25926</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="2"/>
       <c r="N6" s="13">
         <f>AVERAGE(B6:M6)</f>
@@ -1578,16 +1626,16 @@
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="13">
         <v>0.5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="13">
@@ -1599,10 +1647,10 @@
       <c r="H7" s="13">
         <v>0.26316</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="2"/>
       <c r="N7" s="13">
         <f>AVERAGE(B7:M7)</f>
@@ -1612,12 +1660,12 @@
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="13">
         <v>0.5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5">
+      <c r="D8" s="4"/>
+      <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="13">
@@ -1626,11 +1674,11 @@
       <c r="G8" s="13">
         <v>0.1</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="2"/>
       <c r="N8" s="13">
         <f>AVERAGE(B8:M8)</f>
@@ -1640,23 +1688,23 @@
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="2"/>
       <c r="N9" s="13">
         <f>AVERAGE(B9:M9)</f>
@@ -1666,19 +1714,19 @@
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="2"/>
       <c r="N10" s="13">
         <f>AVERAGE(B10:M10)</f>
@@ -1688,19 +1736,19 @@
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="2"/>
       <c r="N11" s="13">
         <f>AVERAGE(B11:M11)</f>
@@ -1710,19 +1758,19 @@
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="2"/>
       <c r="N12" s="13">
         <f>AVERAGE(B12:M12)</f>
@@ -1732,17 +1780,17 @@
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="2"/>
       <c r="N13" s="13"/>
     </row>
@@ -1790,81 +1838,81 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="17"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="2"/>
       <c r="N15" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="17"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="2"/>
       <c r="N16" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="17"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="2"/>
       <c r="N17" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="17"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="2"/>
       <c r="N18" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="17"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="2"/>
       <c r="N19" s="15"/>
     </row>
@@ -1872,17 +1920,17 @@
       <c r="A20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="2"/>
       <c r="N20" s="15"/>
     </row>
@@ -1938,13 +1986,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -1955,18 +2003,18 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="10">
@@ -1977,7 +2025,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="10">
@@ -1988,7 +2036,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="10">
@@ -1999,7 +2047,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="10">
@@ -2010,7 +2058,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="10">
@@ -2021,7 +2069,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="10">
@@ -2032,7 +2080,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="10">
@@ -2043,7 +2091,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="10">
@@ -2054,7 +2102,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="10">
@@ -2065,7 +2113,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="10">
@@ -2076,7 +2124,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="10">
@@ -2100,12 +2148,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2113,98 +2161,98 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>10.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>5.83898</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>3.26256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>1.82297</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>1.01859</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>0.56914</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>0.31801</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>0.17769</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>0.09929</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>0.05548</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>0.031</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>0.01732</v>
       </c>
     </row>
@@ -2220,7 +2268,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2237,10 +2285,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>12.69215</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>23.756171562770646</v>
       </c>
     </row>
@@ -2269,7 +2317,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4">
+        <v>126921.51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
+++ b/raw_data/CPA_ProjectReportTemplate_IntroductionToMarketing_2023_Fall_20231031p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="group"/>
@@ -260,13 +260,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -326,58 +326,55 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -688,10 +685,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="25.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -754,205 +751,205 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>0.46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>0.12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>0.2333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>0.4061</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>0.5341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>0.6289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="6">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>0.6992</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>0.7512</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>0.7898</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>0.8183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>0.8395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="6">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>0.8552</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="6">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>0.8669</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="6">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>0.8754</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="6">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>0.8818</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="6">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>0.8865</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="6">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>0.89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="6">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="7">
         <v>0.8926</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="6">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="7">
         <v>0.8945</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="6">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="7">
         <v>0.8959</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>0.897</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="6">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="7">
         <v>0.8978</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="6">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>0.8983</v>
       </c>
     </row>
@@ -968,22 +965,22 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>16.05373526341549</v>
       </c>
       <c r="B2" s="2"/>
@@ -1004,11 +1001,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1029,11 +1026,21 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,8 +1058,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1067,43 +1074,57 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3">
+        <v>0.29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3">
+        <v>0.58</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3">
+        <v>0.33</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3">
+        <v>0.33</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1117,12 +1138,12 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1137,19 +1158,25 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3">
+        <v>0.5587</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3">
+        <v>0.2123</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3">
+        <v>0.2291</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,44 +1194,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>20332</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>2018</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <v>2019</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1224,151 +1251,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>1584</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>1584</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>2324</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>3054</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>1379</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>2697</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>1259</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>2068</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>1419</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>1644</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>1626</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>2315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>1890</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>2928</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="6">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>1457</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>2970</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>1169</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>2378</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>1569</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="10">
         <v>2284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="10">
         <v>2247</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="10">
         <v>3091</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <v>2409</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="10">
         <v>3429</v>
       </c>
     </row>
@@ -1388,63 +1415,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1452,19 +1479,19 @@
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
@@ -1542,7 +1569,7 @@
       <c r="K4" s="13">
         <v>0.03075</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="2"/>
       <c r="N4" s="13">
         <f>AVERAGE(B4:M4)</f>
@@ -1579,8 +1606,8 @@
       <c r="J5" s="13">
         <v>0.14773</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="2"/>
       <c r="N5" s="13">
         <f>AVERAGE(B5:M5)</f>
@@ -1614,9 +1641,9 @@
       <c r="I6" s="13">
         <v>0.25926</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="2"/>
       <c r="N6" s="13">
         <f>AVERAGE(B6:M6)</f>
@@ -1626,16 +1653,16 @@
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="13">
         <v>0.5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
       <c r="F7" s="13">
@@ -1647,10 +1674,10 @@
       <c r="H7" s="13">
         <v>0.26316</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="2"/>
       <c r="N7" s="13">
         <f>AVERAGE(B7:M7)</f>
@@ -1660,12 +1687,12 @@
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="13">
         <v>0.5</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6">
+      <c r="D8" s="7"/>
+      <c r="E8" s="10">
         <v>1</v>
       </c>
       <c r="F8" s="13">
@@ -1674,11 +1701,11 @@
       <c r="G8" s="13">
         <v>0.1</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="2"/>
       <c r="N8" s="13">
         <f>AVERAGE(B8:M8)</f>
@@ -1688,23 +1715,23 @@
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6">
+      <c r="D9" s="7"/>
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="2"/>
       <c r="N9" s="13">
         <f>AVERAGE(B9:M9)</f>
@@ -1714,19 +1741,19 @@
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="2"/>
       <c r="N10" s="13">
         <f>AVERAGE(B10:M10)</f>
@@ -1736,19 +1763,19 @@
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
       <c r="N11" s="13">
         <f>AVERAGE(B11:M11)</f>
@@ -1758,19 +1785,19 @@
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="2"/>
       <c r="N12" s="13">
         <f>AVERAGE(B12:M12)</f>
@@ -1780,17 +1807,17 @@
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="2"/>
       <c r="N13" s="13"/>
     </row>
@@ -1832,107 +1859,107 @@
         <v>0.43258</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <f>AVERAGE(N3:N12)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="17"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="15"/>
+      <c r="N15" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="17"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="15"/>
+      <c r="N16" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="17"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="15"/>
+      <c r="N17" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="15"/>
+      <c r="N18" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="17"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1950,15 +1977,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1986,151 +2013,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="13">
         <v>0.56530017</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>0.48308715</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="13">
         <v>0.31956428</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="13">
         <v>0.05753459</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="13">
         <v>0.18064974</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>0.01415235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="13">
         <v>0.10212133</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="13">
         <v>0.00602463</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="13">
         <v>0.05772921</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>0.0026858</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="13">
         <v>0.03263433</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>0.00161148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="6">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="13">
         <v>0.01844819</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>0.00053716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>0.01042877</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="13">
         <v>0.00053716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="13">
         <v>0.00589538</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="13">
         <v>0.00053716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="13">
         <v>0.00333266</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>0.00053716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="13">
         <v>0.00188395</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2148,111 +2175,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>10.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>5.83898</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>3.26256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>1.82297</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>1.01859</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>0.56914</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>0.31801</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="6">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>0.17769</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>0.09929</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>0.05548</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>0.031</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>0.01732</v>
       </c>
     </row>
@@ -2272,23 +2299,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>12.69215</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>23.756171562770646</v>
       </c>
     </row>
@@ -2308,16 +2335,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>126921.51</v>
       </c>
     </row>
